--- a/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_5_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.04984476136153</v>
+        <v>89.97096710877351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4924741923475097</v>
+        <v>0.5155066488338851</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.0343036999118</v>
+        <v>88.94331537902974</v>
       </c>
       <c r="D3" t="n">
-        <v>0.581981677882764</v>
+        <v>0.501680539336644</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.90900446902475</v>
+        <v>87.98517368643614</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4801951427159715</v>
+        <v>0.4971931517686868</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.05624635346443</v>
+        <v>86.9929959642382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5531725694814369</v>
+        <v>0.5111977754223861</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.97582974638316</v>
+        <v>85.98098779706913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5920762187818329</v>
+        <v>0.5104459074760948</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.01086608610044</v>
+        <v>85.008847313364</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5414947651115345</v>
+        <v>0.5689245526150376</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.96097743377013</v>
+        <v>83.94389481283953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5727200134727169</v>
+        <v>0.5990259710260193</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.90901957909675</v>
+        <v>82.9592936085636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5819521272755515</v>
+        <v>0.5572911680836656</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.96090461085144</v>
+        <v>81.95443766364406</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5862003982475802</v>
+        <v>0.5251760840624735</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.9794684102537</v>
+        <v>80.98259258999616</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5687854895032411</v>
+        <v>0.6402568478347436</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.97963097306159</v>
+        <v>79.973346325634</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5433729857172883</v>
+        <v>0.5330746018745096</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.0253542632678</v>
+        <v>78.88588811419345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5833649923971972</v>
+        <v>0.6283971418375642</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.95316693750908</v>
+        <v>78.13620786936309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6295518708150649</v>
+        <v>0.6028499382056328</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.07414968804564</v>
+        <v>76.99291011974329</v>
       </c>
       <c r="D15" t="n">
-        <v>0.700079426336814</v>
+        <v>0.640938799321416</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.94252225277032</v>
+        <v>76.02012004669388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7200718642177635</v>
+        <v>0.6720449367906066</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.93298379068703</v>
+        <v>74.95155790933546</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6562380259983446</v>
+        <v>0.7298217766860152</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.0332984766372</v>
+        <v>73.94684148950135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7525864258794727</v>
+        <v>0.5683552941472031</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.82494605559212</v>
+        <v>73.07878126418474</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7683816228082964</v>
+        <v>0.6863159219505793</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.99277609010345</v>
+        <v>72.08261122057438</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6544950206540429</v>
+        <v>0.6831271118142449</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.04295910278543</v>
+        <v>70.94731300244499</v>
       </c>
       <c r="D21" t="n">
-        <v>0.724486524222845</v>
+        <v>0.6981219154463992</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.9976174456723</v>
+        <v>69.95950657790792</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6831907158284451</v>
+        <v>0.6442157000211127</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.95389345202169</v>
+        <v>69.06891214370862</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7557248826926851</v>
+        <v>0.6953349823738448</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.94067462727968</v>
+        <v>68.04292976586197</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7148355101003138</v>
+        <v>0.566794559041816</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96498720551392</v>
+        <v>67.04751963780653</v>
       </c>
       <c r="D25" t="n">
-        <v>0.76540533029542</v>
+        <v>0.8089593291787729</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.05479066013523</v>
+        <v>65.96149198493846</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7767982466869457</v>
+        <v>0.8047822029017235</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.97834961472809</v>
+        <v>65.05929622602329</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7626173931459722</v>
+        <v>0.7381098622935305</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.87209417954448</v>
+        <v>63.96542207410386</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7526373641503434</v>
+        <v>0.79390326054767</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.00791541175219</v>
+        <v>63.10397750205772</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8021098714111821</v>
+        <v>0.7240059059540115</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.0737680011002</v>
+        <v>62.04129567958979</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7733262171407632</v>
+        <v>0.8044541894771848</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.05545171838762</v>
+        <v>61.02627830749001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8183472053701835</v>
+        <v>0.7567493111395306</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.90929744231758</v>
+        <v>59.88393250537681</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8782815943922302</v>
+        <v>0.9616524607638343</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.96531827275109</v>
+        <v>58.93261858752548</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8276136529320304</v>
+        <v>0.8845693640217014</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.99305486718205</v>
+        <v>57.99260711621015</v>
       </c>
       <c r="D34" t="n">
-        <v>0.953867469002862</v>
+        <v>0.8487269872039889</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.95187483544146</v>
+        <v>57.00999364288079</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8739301058402168</v>
+        <v>0.8379963321153836</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.03251639033147</v>
+        <v>55.91922608486424</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8775199230796394</v>
+        <v>0.9685565840355738</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.96308097480986</v>
+        <v>54.90280958205594</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8233287309736137</v>
+        <v>0.7539699075529621</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.88170200598406</v>
+        <v>53.92189299354991</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9180321937335217</v>
+        <v>0.9529800509079251</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.95494578848495</v>
+        <v>53.04484270562379</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8598302129989639</v>
+        <v>0.936959287686321</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.90914484969641</v>
+        <v>52.0481609839907</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9505056937262261</v>
+        <v>1.034263888525729</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.9440834340704</v>
+        <v>51.01730740232383</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8490043647882333</v>
+        <v>1.022259767071637</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.09039930251824</v>
+        <v>49.87491267389829</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9895280141554561</v>
+        <v>1.161299675165436</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.05404899959717</v>
+        <v>48.93520186320782</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8702419183755636</v>
+        <v>1.003493224692697</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.95920146463855</v>
+        <v>47.81232680751106</v>
       </c>
       <c r="D44" t="n">
-        <v>1.140411558439779</v>
+        <v>0.9570435840011919</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.90945517085433</v>
+        <v>47.06641343266723</v>
       </c>
       <c r="D45" t="n">
-        <v>0.865952800898817</v>
+        <v>0.9500485984007909</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.96341472092664</v>
+        <v>45.9961505393108</v>
       </c>
       <c r="D46" t="n">
-        <v>1.083206069447931</v>
+        <v>1.025415021375381</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.80371697748422</v>
+        <v>44.857827201938</v>
       </c>
       <c r="D47" t="n">
-        <v>1.071945584910265</v>
+        <v>1.184943035577523</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.00009392410999</v>
+        <v>43.98508594777366</v>
       </c>
       <c r="D48" t="n">
-        <v>1.045535580487092</v>
+        <v>0.9995520486976089</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99692315526765</v>
+        <v>43.17632938892864</v>
       </c>
       <c r="D49" t="n">
-        <v>1.021832732166701</v>
+        <v>1.039739866396336</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.95560000825751</v>
+        <v>41.94606583269287</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9224724579340324</v>
+        <v>1.106228378931804</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.92542503295653</v>
+        <v>41.08977448324891</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9642619439768627</v>
+        <v>1.1127861491723</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.89550958712029</v>
+        <v>40.12095467673922</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9324557524543323</v>
+        <v>1.046273623066014</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.06770543002643</v>
+        <v>39.12704541172341</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9641718653674237</v>
+        <v>1.053614563784608</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.78816806976279</v>
+        <v>37.98244518501863</v>
       </c>
       <c r="D54" t="n">
-        <v>1.076166252878292</v>
+        <v>1.079847282923402</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.00395078017405</v>
+        <v>37.05758988682456</v>
       </c>
       <c r="D55" t="n">
-        <v>1.162285462608903</v>
+        <v>1.113064588058714</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.86931906337745</v>
+        <v>35.79253072020123</v>
       </c>
       <c r="D56" t="n">
-        <v>1.126286572815445</v>
+        <v>0.9891868227986353</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.92088799898565</v>
+        <v>35.02121285563901</v>
       </c>
       <c r="D57" t="n">
-        <v>1.104996822950704</v>
+        <v>1.056309647821194</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.11416031244075</v>
+        <v>33.93793124465346</v>
       </c>
       <c r="D58" t="n">
-        <v>1.107539087570591</v>
+        <v>1.273822946730763</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.93487857804852</v>
+        <v>33.06433434006622</v>
       </c>
       <c r="D59" t="n">
-        <v>1.004795302763111</v>
+        <v>1.207375510124391</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.04996860779511</v>
+        <v>31.65781701534218</v>
       </c>
       <c r="D60" t="n">
-        <v>1.211730547425778</v>
+        <v>1.307864736224681</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.82820390150492</v>
+        <v>30.96299619956232</v>
       </c>
       <c r="D61" t="n">
-        <v>1.118121572705149</v>
+        <v>1.153898729584503</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.21431599907969</v>
+        <v>29.80875968106516</v>
       </c>
       <c r="D62" t="n">
-        <v>1.168147544845504</v>
+        <v>1.281501865054656</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.00099491512968</v>
+        <v>28.96366971686949</v>
       </c>
       <c r="D63" t="n">
-        <v>1.114770460333736</v>
+        <v>1.125698854932823</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.85392259551791</v>
+        <v>27.96881752404108</v>
       </c>
       <c r="D64" t="n">
-        <v>1.247612662310572</v>
+        <v>1.121409236137902</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.86214664848662</v>
+        <v>26.93786899721241</v>
       </c>
       <c r="D65" t="n">
-        <v>1.172306964230585</v>
+        <v>1.137788134215758</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.05799472962138</v>
+        <v>26.02463422034249</v>
       </c>
       <c r="D66" t="n">
-        <v>1.286725234272855</v>
+        <v>1.269439092066421</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.05738901689452</v>
+        <v>25.21284518791278</v>
       </c>
       <c r="D67" t="n">
-        <v>1.276788826319365</v>
+        <v>1.35048280562697</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.97858565833052</v>
+        <v>23.90372722328974</v>
       </c>
       <c r="D68" t="n">
-        <v>1.065099328769641</v>
+        <v>1.303285739244177</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.03189845610297</v>
+        <v>23.03319737877353</v>
       </c>
       <c r="D69" t="n">
-        <v>1.207399954109141</v>
+        <v>1.23509440212451</v>
       </c>
     </row>
   </sheetData>
